--- a/front-end/COACTIVO.xlsx
+++ b/front-end/COACTIVO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\AppsTesis\v5\git\app\front-end\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\AppsTesis\v5\app\front-end\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -595,7 +595,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,13 +673,13 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="str">
         <f ca="1">"PROC"&amp;RANDBETWEEN(1,9)&amp;CHAR(RANDBETWEEN(65,90))&amp;RANDBETWEEN(1,9)&amp;CHAR(RANDBETWEEN(65,90))</f>
-        <v>PROC1Q6O</v>
+        <v>PROC4P7D</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="9">
-        <v>42644</v>
+        <v>42278</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>12</v>
@@ -703,7 +703,7 @@
         <v>48</v>
       </c>
       <c r="K3" s="10">
-        <v>42644</v>
+        <v>42278</v>
       </c>
       <c r="L3" s="5">
         <v>34567897</v>
@@ -727,7 +727,7 @@
         <v>49</v>
       </c>
       <c r="K4" s="10">
-        <v>42645</v>
+        <v>42278</v>
       </c>
       <c r="L4" s="5">
         <v>54567897</v>
@@ -750,7 +750,7 @@
         <v>50</v>
       </c>
       <c r="K5" s="10">
-        <v>42646</v>
+        <v>42278</v>
       </c>
       <c r="L5" s="5">
         <v>94567897</v>
@@ -773,7 +773,7 @@
         <v>51</v>
       </c>
       <c r="K6" s="10">
-        <v>42647</v>
+        <v>42278</v>
       </c>
       <c r="L6" s="5">
         <v>24567897</v>
@@ -796,7 +796,7 @@
         <v>52</v>
       </c>
       <c r="K7" s="10">
-        <v>42648</v>
+        <v>42278</v>
       </c>
       <c r="L7" s="5">
         <v>44567897</v>
@@ -819,7 +819,7 @@
         <v>53</v>
       </c>
       <c r="K8" s="10">
-        <v>42649</v>
+        <v>42278</v>
       </c>
       <c r="L8" s="5">
         <v>74567897</v>
@@ -842,7 +842,7 @@
         <v>54</v>
       </c>
       <c r="K9" s="10">
-        <v>42650</v>
+        <v>42278</v>
       </c>
       <c r="L9" s="5">
         <v>14567897</v>
@@ -865,7 +865,7 @@
         <v>55</v>
       </c>
       <c r="K10" s="10">
-        <v>42651</v>
+        <v>42278</v>
       </c>
       <c r="L10" s="5">
         <v>24567897</v>
@@ -888,7 +888,7 @@
         <v>56</v>
       </c>
       <c r="K11" s="10">
-        <v>42652</v>
+        <v>42278</v>
       </c>
       <c r="L11" s="5">
         <v>64567897</v>
@@ -910,8 +910,8 @@
       <c r="J12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K12" s="9">
-        <v>42653</v>
+      <c r="K12" s="10">
+        <v>42278</v>
       </c>
       <c r="L12" s="8">
         <v>84567897</v>
